--- a/EM Analyzer/bin/Debug/Hanaka_reduced - Logs.xlsx
+++ b/EM Analyzer/bin/Debug/Hanaka_reduced - Logs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FileName</t>
   </si>
@@ -35,6 +35,10 @@
   <si>
     <t xml:space="preserve">The Value Of Field AOI Name Is Not Valid!!! 
 The Value Found Is: White Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Value Of Field AOI Size Is Not Valid!!! 
+The Value Found Is: 172033</t>
   </si>
 </sst>
 </file>
@@ -82,8 +86,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C61">
-  <autoFilter ref="A1:C61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C83">
+  <autoFilter ref="A1:C83"/>
   <tableColumns count="3">
     <tableColumn id="1" name="FileName"/>
     <tableColumn id="2" name="Line"/>
@@ -95,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -210,10 +214,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -224,7 +228,7 @@
         <v>400</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -232,10 +236,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -243,10 +247,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -254,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -265,7 +269,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -276,10 +280,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -287,10 +291,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -298,10 +302,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -309,10 +313,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -320,7 +324,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -331,7 +335,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -342,7 +346,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -353,7 +357,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
@@ -364,7 +368,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -375,7 +379,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -386,10 +390,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>764</v>
+        <v>464</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -397,10 +401,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>764</v>
+        <v>465</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -408,10 +412,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>765</v>
+        <v>466</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -419,10 +423,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>765</v>
+        <v>468</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -430,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -441,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
@@ -452,10 +456,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -463,10 +467,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -474,10 +478,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -485,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -496,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="1">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -507,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="1">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
@@ -518,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="1">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -529,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -540,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -551,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="1">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -562,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="1">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -573,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="1">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -584,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="1">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -595,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -606,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -617,10 +621,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="1">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -628,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="1">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -639,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="1">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>6</v>
@@ -650,10 +654,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="1">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -661,10 +665,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="1">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -672,10 +676,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="1">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -683,10 +687,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="1">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -694,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="1">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
@@ -705,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="1">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>6</v>
@@ -716,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="1">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -727,10 +731,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="1">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -738,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="1">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -749,10 +753,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="1">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -760,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="1">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -771,10 +775,252 @@
         <v>3</v>
       </c>
       <c r="B61" s="1">
+        <v>774</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
+        <v>774</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
+        <v>775</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
+        <v>775</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>775</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
+        <v>776</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
+        <v>776</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
+        <v>776</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
+        <v>777</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
+        <v>777</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>777</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
+        <v>778</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
+        <v>778</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
+        <v>778</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1">
+        <v>779</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
+        <v>779</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1">
+        <v>779</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1">
+        <v>780</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
+        <v>780</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
+        <v>780</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1">
         <v>781</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>6</v>
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
+        <v>781</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="1">
+        <v>781</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
